--- a/docs/StructureDefinition-DiagnosticReportNoteSurgicalPathologyDiagnosticReport.xlsx
+++ b/docs/StructureDefinition-DiagnosticReportNoteSurgicalPathologyDiagnosticReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.6</t>
+    <t>1.4.10</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-18T11:22:00+00:00</t>
+    <t>2025-04-18T16:44:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DiagnosticReportNoteSurgicalPathologyDiagnosticReport.xlsx
+++ b/docs/StructureDefinition-DiagnosticReportNoteSurgicalPathologyDiagnosticReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.15</t>
+    <t>1.5.11</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-30T18:27:21+00:00</t>
+    <t>2025-05-08T08:24:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DiagnosticReportNoteSurgicalPathologyDiagnosticReport.xlsx
+++ b/docs/StructureDefinition-DiagnosticReportNoteSurgicalPathologyDiagnosticReport.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:24:02+00:00</t>
+    <t>2025-05-08T08:54:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DiagnosticReportNoteSurgicalPathologyDiagnosticReport.xlsx
+++ b/docs/StructureDefinition-DiagnosticReportNoteSurgicalPathologyDiagnosticReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.11</t>
+    <t>1.5.16</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-08T08:54:46+00:00</t>
+    <t>2025-05-12T19:54:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DiagnosticReportNoteSurgicalPathologyDiagnosticReport.xlsx
+++ b/docs/StructureDefinition-DiagnosticReportNoteSurgicalPathologyDiagnosticReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.16</t>
+    <t>1.5.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-12T19:54:30+00:00</t>
+    <t>2025-05-23T16:28:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -754,7 +754,8 @@
     <t>1691: reference based on SURGICAL PATHOLOGY - ORDERED TEST &gt; ORDERED TEST - CPRS ORDER # (63.08-.35 &gt; 63.53-3)</t>
   </si>
   <si>
-    <t>Pathology.SurgPathOrderedTest.CPRSOrderIEN,Pathology.SurgPathOrderedTest.CPRSOrderSID</t>
+    <t>Pathology.SurgPathOrderedTest.CPRSOrderIEN
+Pathology.SurgPathOrderedTest.CPRSOrderSID</t>
   </si>
   <si>
     <t>Event.basedOn</t>
@@ -791,7 +792,8 @@
     <t>1417: terminologyMaps using VF_DiagnosticReportLabStatus on SURGICAL PATHOLOGY - ORDERED TEST &gt; ORDERED TEST - DISPOSITION (63.08-.35 &gt; 63.53-10)</t>
   </si>
   <si>
-    <t>Pathology.SurgPathOrderedTest.DispositionLabCodeIEN,Pathology.SurgPathOrderedTest.DispositionLabCodeSID</t>
+    <t>Pathology.SurgPathOrderedTest.DispositionLabCodeIEN
+Pathology.SurgPathOrderedTest.DispositionLabCodeSID</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -1125,7 +1127,25 @@
     <t>2212: reference based on PATIENT - LABORATORY REFERENCE &gt; LAB DATA - LRDFN (2-63 &gt; 63-.01)</t>
   </si>
   <si>
-    <t>Micro.AntibioticSensitivity.LRDFN,Micro.AntibioticSensitivityComment.LRDFN,Micro.BacteriologyReports.LRDFN,Micro.MicroAntibioticLevel.LRDFN,Micro.MicroAudit.LRDFN,Micro.Microbiology.LRDFN,Micro.MicroOrderedTest.LRDFN,Micro.MicroSterilityResults.LRDFN,Micro.MycobacteriologyReports.LRDFN,Micro.Mycology.LRDFN,Micro.MycologyReports.LRDFN,Micro.Parasitology.LRDFN,Micro.ParasitologyReports.LRDFN,Micro.ParasitologyStage.LRDFN,Micro.Virology.LRDFN,Micro.VirologyReports.LRDFN,Pathology.Autopsy.LRDFN,Pathology.CytoOrganTissueFunction.StaffIEN,SStaff.SMicroOrderedTest.LRDFN</t>
+    <t>Micro.AntibioticSensitivity.LRDFN
+Micro.AntibioticSensitivityComment.LRDFN
+Micro.BacteriologyReports.LRDFN
+Micro.MicroAntibioticLevel.LRDFN
+Micro.MicroAudit.LRDFN
+Micro.Microbiology.LRDFN
+Micro.MicroOrderedTest.LRDFN
+Micro.MicroSterilityResults.LRDFN
+Micro.MycobacteriologyReports.LRDFN
+Micro.Mycology.LRDFN
+Micro.MycologyReports.LRDFN
+Micro.Parasitology.LRDFN
+Micro.ParasitologyReports.LRDFN
+Micro.ParasitologyStage.LRDFN
+Micro.Virology.LRDFN
+Micro.VirologyReports.LRDFN
+Pathology.Autopsy.LRDFN
+Pathology.CytoOrganTissueFunction.StaffIEN
+SStaff.SMicroOrderedTest.LRDFN</t>
   </si>
   <si>
     <t>Patient.Extension[PatientExtension].VeteranLrdfn</t>
@@ -1236,7 +1256,26 @@
     <t>1425: source value based on SURGICAL PATHOLOGY - DATE/TIME SPECIMEN TAKEN (63.08-.01)</t>
   </si>
   <si>
-    <t>Pathology.SurgicalPathology.SpecimenTakenDateTime,Pathology.SurgPathComment.SpecimenTakenDateTime,Pathology.SurgPathDelayedComment.SpecimenTakenDateTime,Pathology.SurgPathDiagnosis.SpecimenTakenDateTime,Pathology.SurgPathFrozenSection.SpecimenTakenDateTime,Pathology.SurgPathGrossDescription.SpecimenTakenDateTime,Pathology.SurgPathMicroscopicExam.SpecimenTakenDateTime,Pathology.SurgPathOpFindings.SpecimenTakenDateTime,Pathology.SurgPathOrderedTest.SpecimenTakenDateTime,Pathology.SurgPathOrganTissueDisease.SpecimenTakenDateTime,Pathology.SurgPathOrganTissueEtiology.SpecimenTakenDateTime,Pathology.SurgPathOrganTissueFunction.SpecimenTakenDateTime,Pathology.SurgPathOrganTissueMorphology.SpecimenTakenDateTime,Pathology.SurgPathOrganTissueProcedure.SpecimenTakenDateTime,Pathology.SurgPathPostOpDiagnosis.SpecimenTakenDateTime,Pathology.SurgPathPreOpDiagnosis.SpecimenTakenDateTime,Pathology.SurgPathSpecimen.SpecimenTakenDateTime,Pathology.SurgPathSupplement.SpecimenTakenDateTime,Pathology.SurgPathSupplementDescript.SpecimenTakenDateTime,Pathology.SurgPathTIUReference.SpecimenTakenDateTime</t>
+    <t>Pathology.SurgicalPathology.SpecimenTakenDateTime
+Pathology.SurgPathComment.SpecimenTakenDateTime
+Pathology.SurgPathDelayedComment.SpecimenTakenDateTime
+Pathology.SurgPathDiagnosis.SpecimenTakenDateTime
+Pathology.SurgPathFrozenSection.SpecimenTakenDateTime
+Pathology.SurgPathGrossDescription.SpecimenTakenDateTime
+Pathology.SurgPathMicroscopicExam.SpecimenTakenDateTime
+Pathology.SurgPathOpFindings.SpecimenTakenDateTime
+Pathology.SurgPathOrderedTest.SpecimenTakenDateTime
+Pathology.SurgPathOrganTissueDisease.SpecimenTakenDateTime
+Pathology.SurgPathOrganTissueEtiology.SpecimenTakenDateTime
+Pathology.SurgPathOrganTissueFunction.SpecimenTakenDateTime
+Pathology.SurgPathOrganTissueMorphology.SpecimenTakenDateTime
+Pathology.SurgPathOrganTissueProcedure.SpecimenTakenDateTime
+Pathology.SurgPathPostOpDiagnosis.SpecimenTakenDateTime
+Pathology.SurgPathPreOpDiagnosis.SpecimenTakenDateTime
+Pathology.SurgPathSpecimen.SpecimenTakenDateTime
+Pathology.SurgPathSupplement.SpecimenTakenDateTime
+Pathology.SurgPathSupplementDescript.SpecimenTakenDateTime
+Pathology.SurgPathTIUReference.SpecimenTakenDateTime</t>
   </si>
   <si>
     <t>DiagnosticReport.issued</t>
@@ -2160,7 +2199,7 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="56.33984375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="44.26953125" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="39.4609375" customWidth="true" bestFit="true"/>
     <col min="41" max="41" width="25.4609375" customWidth="true" bestFit="true"/>

--- a/docs/StructureDefinition-DiagnosticReportNoteSurgicalPathologyDiagnosticReport.xlsx
+++ b/docs/StructureDefinition-DiagnosticReportNoteSurgicalPathologyDiagnosticReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.23</t>
+    <t>1.5.30</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-23T16:28:56+00:00</t>
+    <t>2025-05-25T09:23:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/docs/StructureDefinition-DiagnosticReportNoteSurgicalPathologyDiagnosticReport.xlsx
+++ b/docs/StructureDefinition-DiagnosticReportNoteSurgicalPathologyDiagnosticReport.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.30</t>
+    <t>1.6.49</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-25T09:23:19+00:00</t>
+    <t>2025-06-13T16:10:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
